--- a/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
+++ b/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:18:12+00:00</t>
+    <t>2022-05-16T21:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
+++ b/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:46:46+00:00</t>
+    <t>2022-05-16T22:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
+++ b/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:00:55+00:00</t>
+    <t>2022-05-16T22:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
+++ b/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:31:13+00:00</t>
+    <t>2022-05-16T22:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
+++ b/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:59:36+00:00</t>
+    <t>2022-05-17T00:01:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
+++ b/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T00:36:56+00:00</t>
+    <t>2022-05-17T01:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
+++ b/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T01:32:43+00:00</t>
+    <t>2022-05-17T02:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
+++ b/StructureDefinition-JP-CompositionInline-ePrescriptionData.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T02:11:59+00:00</t>
+    <t>2022-05-17T02:27:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
